--- a/medicine/Maladies infectieuses/Virus_d'Epstein-Barr/Virus_d'Epstein-Barr.xlsx
+++ b/medicine/Maladies infectieuses/Virus_d'Epstein-Barr/Virus_d'Epstein-Barr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Virus_d%27Epstein-Barr</t>
+          <t>Virus_d'Epstein-Barr</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus d'Epstein-Barr (aussi appelé EBV) ou virus de l’herpès 4 (HHV-4)  est un virus de la famille des Herpesviridae. Il fait partie de la sous-famille des Gammaherpesvirinae (en). Le virus d'Epstein-Barr cause plusieurs maladies dont la mononucléose infectieuse et le lymphome de Burkitt.
-Le virus cible les lymphocytes B humains via leur récepteur CD21. La protéine EBNA-2 (en) qu'il produit lors de l'infection de ces cellules, peut recruter des facteurs de transcription (FT) humains et ainsi causer des maladies auto-immunes comme le lupus ou le diabète de type 1[1] mais aussi la sclérose en plaques[2],[3],[4].
-Le laboratoire Moderna a engagé les essais d'un candidat vaccin à ARNm contre ce virus[2].
+Le virus cible les lymphocytes B humains via leur récepteur CD21. La protéine EBNA-2 (en) qu'il produit lors de l'infection de ces cellules, peut recruter des facteurs de transcription (FT) humains et ainsi causer des maladies auto-immunes comme le lupus ou le diabète de type 1 mais aussi la sclérose en plaques.
+Le laboratoire Moderna a engagé les essais d'un candidat vaccin à ARNm contre ce virus.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Virus_d%27Epstein-Barr</t>
+          <t>Virus_d'Epstein-Barr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus a été découvert en 1964 par l’analyse d’une biopsie d’un spécimen de tumeur en microscopie électronique, il fut nommé ainsi en l’honneur de Michael A. Epstein et de son étudiante Yvonne Barr. En 1968, le Dr Henle et son équipe de recherche établirent un lien entre la mononucléose infectieuse et le virus d'Epstein-Barr. Ils observèrent qu’une technicienne du laboratoire présentait une mononucléose infectieuse ainsi qu’une séroconversion vis-à-vis du virus.[réf. nécessaire]
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Virus_d%27Epstein-Barr</t>
+          <t>Virus_d'Epstein-Barr</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Réservoir, tropisme et transmission</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le réservoir du virus d'Epstein-Barr est strictement humain. Le virus est transmis par la salive. Le virus d'Epstein-Barr se multiplie dans les cellules de l’oropharynx. Quoique les cellules de l’oropharynx soient permissives à la réplication du virus, des données récentes suggèrent que les lymphocytes B retrouvés dans l’oropharynx seraient le site d’infection primaire. Les lymphocytes B sont donc les cellules cibles du virus d'Epstein-Barr, et plus précisément via leur antigène de surface CD21 (en), véritable porte d'entrée du virus.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Virus_d%27Epstein-Barr</t>
+          <t>Virus_d'Epstein-Barr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,16 +591,18 @@
           <t>Épidémiologie et maladies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le virus d'Epstein-Barr fait partie des virus humains les plus communs et est retrouvé partout dans le monde. Le virus infecte 80-90 % des adultes dans le monde[5]. Aux États-Unis, 95 % des adultes entre 35 et 40 ans ont été infectés.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le virus d'Epstein-Barr fait partie des virus humains les plus communs et est retrouvé partout dans le monde. Le virus infecte 80-90 % des adultes dans le monde. Aux États-Unis, 95 % des adultes entre 35 et 40 ans ont été infectés.
 Le virus d'Epstein-Barr est plus fréquemment acquis pendant l’enfance dans les pays sous-développés (&gt; 90 % des enfants d’âge préscolaire). Aux États-Unis et dans les autres pays développés, beaucoup de personnes ne sont pas infectées lors de l’enfance, mais le sont plutôt lors de l’adolescence ou durant la vie adulte. Le virus cause plusieurs maladies à travers le monde.
-Les porteurs du virus sont contagieux par la salive, et des études tendent à prouver que le virus est transmissible par les relations sexuelles[6].
-Le risque de sclérose en plaques est multiplié par 32 après une infection par le virus d'Epstein-Barr[7].
+Les porteurs du virus sont contagieux par la salive, et des études tendent à prouver que le virus est transmissible par les relations sexuelles.
+Le risque de sclérose en plaques est multiplié par 32 après une infection par le virus d'Epstein-Barr.
 Cependant, leur prédominance diffère selon la région du monde où ils sont retrouvés. Par exemple, pour le lymphome de Burkitt, le virus existe à l’état hyperendémique dans les régions hautement atteintes de paludisme comme l’Afrique tropicale.
-Le virus d'Epstein-Barr cause la  mononucléose infectieuse. Cependant, la maladie est rarement retrouvée dans les pays sous-développés. Aux États-Unis, lorsque l’infection par le virus a lieu durant l’adolescence ou à l’âge adulte, 35 % à 50 %  des cas développent la mononucléose infectieuse. EBV a un rôle pathogène important dans le lymphome de Burkitt qui est  retrouvé de façon endémique en Afrique. Le virus est impliqué dans 97 % des cas de lymphome de Burkitt en Afrique et en Papouasie-Nouvelle-Guinée dans les zones où les cas de paludismes sont fréquents[5].
+Le virus d'Epstein-Barr cause la  mononucléose infectieuse. Cependant, la maladie est rarement retrouvée dans les pays sous-développés. Aux États-Unis, lorsque l’infection par le virus a lieu durant l’adolescence ou à l’âge adulte, 35 % à 50 %  des cas développent la mononucléose infectieuse. EBV a un rôle pathogène important dans le lymphome de Burkitt qui est  retrouvé de façon endémique en Afrique. Le virus est impliqué dans 97 % des cas de lymphome de Burkitt en Afrique et en Papouasie-Nouvelle-Guinée dans les zones où les cas de paludismes sont fréquents.
 De plus, deux types de virus sont observés soit EBV-1 et EBV-2 (ou bien type A et type  B) et sont retrouvés partout dans le monde. Les études séroépidémiologiques et l’isolation du virus suggèrent que la plupart des personnes en Europe et Amérique du Nord sont infectées par le virus de type 1⁵ et le type B est principalement restreint à l’Afrique mais tous les deux sont répandus. Les maladies causées sont les mêmes. Cependant les gènes exprimés lors de la  latence présentent quelques différences.
-Certains cas d'allergies médicamenteuses sont également provoqués par l'EBV[5].
+Certains cas d'allergies médicamenteuses sont également provoqués par l'EBV.
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Virus_d%27Epstein-Barr</t>
+          <t>Virus_d'Epstein-Barr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe des méthodes de diagnostic sérologique qui se basent sur la présence d'anticorps dirigés contre certaines protéines du virus ainsi que des méthodes moléculaires. Les méthodes sérologiques utilisent des tests tels la méthode ELISA ou bien la détection par immunofluorescence. Pour les méthodes moléculaires, des tests tels que le PCR, l’analyse de type Southern blot ou le NASBA sont utilisés.
 </t>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Virus_d%27Epstein-Barr</t>
+          <t>Virus_d'Epstein-Barr</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +664,9 @@
           <t>Génome et structure</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le génome du virus d'Epstein-Barr est un ADN linéaire double brin de 172 kilopaires de base. Le génome encode approximativement 100 gènes dont 10 exprimés lors de la phase de latence du virus. Le virus d'Epstein-Barr consiste en un cœur protéique de forme toroïdal enveloppé avec l’ADN double brin. De plus, le virus possède une nucléocapside icosaédrique contenant 162 capsomères, une protéine d’enveloppe amorphe entourant la capside et une protéine d’enveloppe externe constituée de façon prédominante par une glycoprotéine unique : gp350/220.
 </t>
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Virus_d%27Epstein-Barr</t>
+          <t>Virus_d'Epstein-Barr</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +697,9 @@
           <t>Protéines virales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus va exprimer lors de sa réplication des antigènes précoces (LYDMA, EBNA et EMA), lors de la duplication du matériel (EA) et des antigènes tardifs (LMA et VCA). 
 LYDMA (Lymphocyte-defined membran antigen) est un antigène présent à la surface de la cellule infectée qui est la cible des lymphocytes T cytotoxiques.
@@ -703,7 +727,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Virus_d%27Epstein-Barr</t>
+          <t>Virus_d'Epstein-Barr</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -721,7 +745,9 @@
           <t>Réplication et latence</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La pénétration du virus à l’intérieur des lymphocytes B se fait par interaction entre la glycoprotéine gp 350/220 sur le virus et la protéine de surface CD21 chez le lymphocyte. L’adsorption du virus à la surface des lymphocytes est suivie par endocytose du virus d'Epstein-Barr. Une seconde glycoprotéine gp85 médie la fusion du virus avec la membrane cellulaire ce qui cause la relâche de la nucléocapside à l’intérieur du cytoplasme du lymphocyte B. Une troisième glycoprotéine gp42 est essentielle pour la pénétration des lymphocytes B par son interaction avec les molécules du CMH (complexe majeur d'histocompatibilité) de classe II à la surface de la cellule. 
 Le déshabillage de la nucléocapside et le transport du génome au noyau de la cellule sont moins bien compris. Le génome du virus d'Epstein-Barr est répliqué avec l’aide de l’ADN polymérase cellulaire durant la phase S du cycle cellulaire. Par la suite, le génome subsiste sous forme d’épisome.
